--- a/Expense1.xlsx
+++ b/Expense1.xlsx
@@ -5,19 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939026F9-87F0-47EE-B75B-118F075E47BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD558B4F-C4FC-4EF1-A261-8FDA5549B795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" xr2:uid="{26D159A6-36E2-4022-873C-EB0DFB7730E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +76,9 @@
   </si>
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -430,16 +429,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC114E8-CE64-4C2B-99D6-3312F3B077A8}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0058F082-1353-46AB-BB3F-1868B2E412E9}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,241 +485,8 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0CA245-26A2-472B-BF8A-BB93490CE09E}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DDF8F-6373-42FF-A4A3-C26AA9FBF996}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83BDA4C-1388-49F1-8C24-E8B48D4F3D14}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C24648-D382-4C85-A7AC-94052A5D138B}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
